--- a/doc/sprint1/1121224/Building 2.xlsx
+++ b/doc/sprint1/1121224/Building 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao_\OneDrive\Documentos\rcomp_g03\doc\sprint1\1121224\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA9A2171-DB05-470B-AA5E-CC53F2A20C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC45C7-D472-4B4D-8FFF-A524C2F4355A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="3885" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{8E827E23-E974-4404-9000-91DF8D0EBF74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8E827E23-E974-4404-9000-91DF8D0EBF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Building 2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="135">
   <si>
     <t xml:space="preserve">2x patch cord fiber </t>
   </si>
@@ -273,9 +273,6 @@
     <t>IC</t>
   </si>
   <si>
-    <t>4x patch cord fiber</t>
-  </si>
-  <si>
     <t>2x 80m fiber</t>
   </si>
   <si>
@@ -406,6 +403,42 @@
   </si>
   <si>
     <t>40m</t>
+  </si>
+  <si>
+    <t>Room 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6x patch cord fiber </t>
+  </si>
+  <si>
+    <t>8x patch cord fiber</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>10x patch cord fiber</t>
+  </si>
+  <si>
+    <t>8x 22m fiber</t>
+  </si>
+  <si>
+    <t>Total fiber =  345m (excess)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x patch cord fiber </t>
+  </si>
+  <si>
+    <t>2x 8m fiber</t>
+  </si>
+  <si>
+    <t>Total fiber = 47m (excess)</t>
+  </si>
+  <si>
+    <t>8x2,5m fiber</t>
+  </si>
+  <si>
+    <t>Total fiber : 24m</t>
   </si>
 </sst>
 </file>
@@ -649,7 +682,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
@@ -674,6 +707,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -992,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0854720-448F-4157-BD2C-35D09E8B5586}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1317,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>43</v>
@@ -1300,7 +1336,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>74</v>
@@ -1308,7 +1344,7 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>16</v>
@@ -1316,23 +1352,23 @@
     </row>
     <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>78</v>
+      <c r="A30" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>79</v>
+      <c r="A31" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>22</v>
@@ -1340,31 +1376,41 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+    <row r="37" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+    <row r="38" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1377,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7914A4B8-CE2C-4454-97EE-10F1E320B580}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,35 +1439,35 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
+      <c r="A3" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -1434,50 +1480,50 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
+      <c r="A4" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
+      <c r="A5" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>49</v>
+      <c r="A6" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>50</v>
+      <c r="A7" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>36</v>
@@ -1486,26 +1532,26 @@
         <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>51</v>
+      <c r="A8" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>52</v>
+      <c r="A9" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
@@ -1518,8 +1564,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>53</v>
+      <c r="A10" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>58</v>
@@ -1528,54 +1574,54 @@
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>54</v>
+      <c r="A11" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>56</v>
+      <c r="A12" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
+      <c r="A14" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>16</v>
@@ -1588,84 +1634,72 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>58</v>
+      <c r="A15" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>59</v>
+      <c r="A16" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>60</v>
+      <c r="A17" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
     <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C21" s="10" t="s">
         <v>21</v>
       </c>
@@ -1674,122 +1708,65 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="C22" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D24" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="3" t="s">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="4" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>77</v>
-      </c>
       <c r="D29" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>78</v>
-      </c>
       <c r="D30" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>79</v>
-      </c>
       <c r="D31" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>80</v>
-      </c>
       <c r="D32" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/sprint1/1121224/Building 2.xlsx
+++ b/doc/sprint1/1121224/Building 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao_\OneDrive\Documentos\rcomp_g03\doc\sprint1\1121224\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC45C7-D472-4B4D-8FFF-A524C2F4355A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D062D53F-23FB-45DD-9028-89C412F61D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8E827E23-E974-4404-9000-91DF8D0EBF74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E827E23-E974-4404-9000-91DF8D0EBF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Building 2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="135">
   <si>
     <t xml:space="preserve">2x patch cord fiber </t>
   </si>
@@ -1030,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0854720-448F-4157-BD2C-35D09E8B5586}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -1425,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7914A4B8-CE2C-4454-97EE-10F1E320B580}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,9 +1648,6 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
@@ -1661,10 +1658,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>70</v>
-      </c>
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>104</v>
       </c>
@@ -1675,7 +1669,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="7" t="s">
         <v>121</v>
       </c>
@@ -1683,7 +1677,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="11" t="s">
         <v>16</v>
       </c>
@@ -1691,7 +1685,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="9" t="s">
         <v>97</v>
       </c>
@@ -1699,7 +1693,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="10" t="s">
         <v>21</v>
       </c>
@@ -1707,7 +1701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
         <v>122</v>
       </c>
@@ -1715,52 +1709,52 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="8" t="s">
         <v>96</v>
       </c>
